--- a/PW/матрица.xlsx
+++ b/PW/матрица.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>j=1</t>
   </si>
   <si>
     <t>i=1</t>
+  </si>
+  <si>
+    <t>Итог</t>
   </si>
 </sst>
 </file>
@@ -62,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -129,21 +132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -246,7 +234,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -259,21 +286,58 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -286,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -297,15 +361,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -586,16 +658,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="29" max="29" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,22 +746,25 @@
       <c r="Z1" s="4">
         <v>25</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AA1" s="19">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="AB1" s="25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -710,24 +788,21 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="23"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="D3" s="1"/>
+      <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
+      <c r="G3" s="11"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -747,13 +822,14 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="23"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -780,20 +856,23 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="23"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -813,13 +892,14 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="23"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -846,19 +926,20 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="23"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="1"/>
@@ -879,13 +960,14 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="23"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -898,10 +980,12 @@
       <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="12">
-        <v>6</v>
-      </c>
-      <c r="L8" s="1"/>
+      <c r="K8" s="11">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -916,13 +1000,14 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -947,13 +1032,14 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="23"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -978,13 +1064,14 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="23"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -994,10 +1081,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="12">
-        <v>6</v>
-      </c>
-      <c r="M11" s="1"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11">
+        <v>5</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1011,13 +1098,16 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1028,9 +1118,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="12">
-        <v>5</v>
-      </c>
+      <c r="M12" s="11"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1044,13 +1132,16 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1066,10 +1157,10 @@
         <v>4</v>
       </c>
       <c r="O13" s="1">
-        <v>6</v>
-      </c>
-      <c r="P13" s="12">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="P13" s="11">
+        <v>5</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1081,13 +1172,16 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1102,7 +1196,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <v>1</v>
       </c>
       <c r="R14" s="1"/>
@@ -1114,13 +1208,16 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1147,13 +1244,16 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1178,13 +1278,16 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1200,32 +1303,25 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1">
-        <v>1</v>
-      </c>
-      <c r="S17" s="12">
-        <v>9</v>
-      </c>
-      <c r="T17" s="1">
-        <v>4</v>
-      </c>
+      <c r="R17" s="11">
+        <v>1</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="12">
-        <v>5</v>
-      </c>
-      <c r="W17" s="12">
-        <v>8</v>
-      </c>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="23"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1242,29 +1338,26 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1">
-        <v>9</v>
+      <c r="S18" s="11">
+        <v>3</v>
       </c>
       <c r="T18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U18" s="1"/>
-      <c r="V18" s="1">
-        <v>5</v>
-      </c>
-      <c r="W18" s="1">
-        <v>8</v>
-      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="23"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1289,13 +1382,16 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1314,21 +1410,30 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="12">
-        <v>5</v>
-      </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
+      <c r="U20" s="11">
+        <v>3</v>
+      </c>
+      <c r="V20" s="1">
+        <v>3</v>
+      </c>
+      <c r="W20" s="17">
+        <v>2</v>
+      </c>
+      <c r="X20" s="1">
+        <v>3</v>
+      </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1353,13 +1458,16 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1381,18 +1489,19 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="12">
-        <v>5</v>
-      </c>
+      <c r="X22" s="17"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1417,13 +1526,16 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1446,17 +1558,20 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="12">
+      <c r="Y24" s="11">
         <v>1</v>
       </c>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1483,71 +1598,168 @@
       <c r="Z25" s="1">
         <v>1</v>
       </c>
-      <c r="AA25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="AA25" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="23"/>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="18"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="23"/>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="15">
+        <v>1</v>
+      </c>
+      <c r="C28" s="15">
+        <v>2</v>
+      </c>
+      <c r="D28" s="15">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15">
+        <v>2</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1</v>
+      </c>
+      <c r="G28" s="15">
+        <v>2</v>
+      </c>
+      <c r="H28" s="15">
+        <v>1</v>
+      </c>
+      <c r="I28" s="15">
+        <v>1</v>
+      </c>
+      <c r="J28" s="15">
+        <v>2</v>
+      </c>
+      <c r="K28" s="15">
+        <v>5</v>
+      </c>
+      <c r="L28" s="15">
+        <v>5</v>
+      </c>
+      <c r="M28" s="15">
+        <v>5</v>
+      </c>
+      <c r="N28" s="15">
+        <v>4</v>
+      </c>
+      <c r="O28" s="15">
+        <v>3</v>
+      </c>
+      <c r="P28" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>2</v>
+      </c>
+      <c r="R28" s="15">
+        <v>1</v>
+      </c>
+      <c r="S28" s="15">
+        <v>3</v>
+      </c>
+      <c r="T28" s="15">
+        <v>3</v>
+      </c>
+      <c r="U28" s="15">
+        <v>3</v>
+      </c>
+      <c r="V28" s="15">
+        <v>3</v>
+      </c>
+      <c r="W28" s="15">
+        <v>2</v>
+      </c>
+      <c r="X28" s="15">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="15">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>13</v>
+      </c>
+      <c r="AC28">
+        <f>B28+C28+D28+E28+F28+G28+H28+I28+J28+K28+L28+M28+N28+O28+P28+Q28+R28+S28+T28+U28+V28+W28+X28+Y28+Z28+AA28+AB28</f>
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
